--- a/data/entregas.xlsx
+++ b/data/entregas.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Documents/idisk/Docs.Fábio/Projeto Gama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jz/Desktop/Dev/projeto_gama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F84778-E5BC-A941-BEB5-F9542E9841BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7BA73-9128-C545-BAEB-1B102CA41AF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="28160" windowHeight="19500" xr2:uid="{226FBFE1-A509-B54F-BF4C-C9090E8BA1CB}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="28160" windowHeight="19260" xr2:uid="{226FBFE1-A509-B54F-BF4C-C9090E8BA1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>HOSPITAIS</t>
   </si>
@@ -78,15 +84,9 @@
     <t>Caçapava</t>
   </si>
   <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
     <t>Santo André</t>
   </si>
   <si>
-    <t>Diversas</t>
-  </si>
-  <si>
     <t>Guaratingueta</t>
   </si>
   <si>
@@ -339,9 +339,6 @@
     <t>Diversas RS</t>
   </si>
   <si>
-    <t>Diversas SP</t>
-  </si>
-  <si>
     <t>EBS, Santa Casa e Hospital de Campanha</t>
   </si>
   <si>
@@ -355,6 +352,12 @@
   </si>
   <si>
     <t>Diversas entregas pela Abinfer Bragança Paulista</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, rj</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A403C8-185C-0841-898B-0DE4C7B1DBCB}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,10 +952,10 @@
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="19">
         <v>200</v>
@@ -993,10 +996,10 @@
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>480</v>
@@ -1004,10 +1007,10 @@
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="C8" s="16">
         <v>2000</v>
@@ -1015,10 +1018,10 @@
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>40</v>
@@ -1026,10 +1029,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
         <v>1820</v>
@@ -1037,10 +1040,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="12">
         <v>960</v>
@@ -1059,7 +1062,7 @@
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>4</v>
@@ -1070,10 +1073,10 @@
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="19">
         <v>300</v>
@@ -1081,7 +1084,7 @@
     </row>
     <row r="15" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="16" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>4</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>4</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>4</v>
@@ -1125,10 +1128,10 @@
     </row>
     <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6">
         <v>520</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>4</v>
@@ -1147,10 +1150,10 @@
     </row>
     <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5">
         <v>60</v>
@@ -1158,10 +1161,10 @@
     </row>
     <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="19">
         <v>280</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>8</v>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>4</v>
@@ -1191,10 +1194,10 @@
     </row>
     <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C25" s="16">
         <v>200</v>
@@ -1202,10 +1205,10 @@
     </row>
     <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="6">
         <v>100</v>
@@ -1213,7 +1216,7 @@
     </row>
     <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>4</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>4</v>
@@ -1235,10 +1238,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="19">
         <v>200</v>
@@ -1246,10 +1249,10 @@
     </row>
     <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C30" s="16">
         <v>200</v>
@@ -1257,7 +1260,7 @@
     </row>
     <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>4</v>
@@ -1268,10 +1271,10 @@
     </row>
     <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6">
         <v>30</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>4</v>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>4</v>
@@ -1302,7 +1305,7 @@
     </row>
     <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>4</v>
@@ -1313,10 +1316,10 @@
     </row>
     <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C36" s="16">
         <v>200</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>4</v>
@@ -1336,10 +1339,10 @@
     </row>
     <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C38" s="16">
         <v>400</v>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="6">
         <v>50</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>4</v>
@@ -1380,10 +1383,10 @@
     </row>
     <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="6">
         <v>280</v>
@@ -1391,10 +1394,10 @@
     </row>
     <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="6">
         <v>400</v>
@@ -1413,10 +1416,10 @@
     </row>
     <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="6">
         <v>40</v>
@@ -1424,10 +1427,10 @@
     </row>
     <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="6">
         <v>120</v>
@@ -1435,10 +1438,10 @@
     </row>
     <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" s="6">
         <v>420</v>
@@ -1446,10 +1449,10 @@
     </row>
     <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="15">
         <v>50</v>
@@ -1457,10 +1460,10 @@
     </row>
     <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" s="6">
         <v>440</v>
@@ -1468,10 +1471,10 @@
     </row>
     <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="6">
         <v>80</v>
@@ -1479,10 +1482,10 @@
     </row>
     <row r="51" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="6">
         <v>160</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>8</v>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="53" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="9">
         <v>50</v>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="54" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="6">
         <v>50</v>
@@ -1523,10 +1526,10 @@
     </row>
     <row r="55" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" s="5">
         <v>480</v>
@@ -1534,10 +1537,10 @@
     </row>
     <row r="56" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" s="6">
         <v>1170</v>
@@ -1545,10 +1548,10 @@
     </row>
     <row r="57" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="6">
         <v>100</v>
@@ -1556,10 +1559,10 @@
     </row>
     <row r="58" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="15">
         <v>200</v>
@@ -1567,10 +1570,10 @@
     </row>
     <row r="59" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="6">
         <v>50</v>
@@ -1578,10 +1581,10 @@
     </row>
     <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" s="15">
         <v>50</v>
@@ -1589,10 +1592,10 @@
     </row>
     <row r="61" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C61" s="13">
         <v>40</v>
@@ -1600,10 +1603,10 @@
     </row>
     <row r="62" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="19">
         <v>35</v>
@@ -1611,10 +1614,10 @@
     </row>
     <row r="63" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C63" s="19">
         <v>300</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="65" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>4</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="66" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>7</v>
@@ -1655,10 +1658,10 @@
     </row>
     <row r="67" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="16">
         <v>300</v>
@@ -1677,10 +1680,10 @@
     </row>
     <row r="69" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C69" s="19">
         <v>7025</v>
@@ -1688,10 +1691,10 @@
     </row>
     <row r="70" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C70" s="5">
         <v>45043</v>
@@ -1983,7 +1986,7 @@
       <c r="C127" s="15"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C68">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="C2:C127">
